--- a/biology/Médecine/Viridiflorol/Viridiflorol.xlsx
+++ b/biology/Médecine/Viridiflorol/Viridiflorol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le viridiflorol est une molécule de la famille des sesquiterpénols (sesquiterpène avec un groupe alcool). C'est une molécule volatile, donc de faible poids moléculaire.
@@ -512,7 +524,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le viridiflorol a des propriétés physiologiques qui ont été rapportées dans un livre cité ci-dessous, qui ne répond pas aux critères habituels de qualité dans l'évaluation scientifique. Elle serait principalement un mimétique des œstrogènes et un phlébotonique.
 </t>
@@ -543,9 +557,11 @@
           <t>Où la trouver</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se trouve dans l'huile essentielle de Niaouli (Melaleuca quinquenervia cineolifera) entre 2,5 et 9 %[2] mais des teneurs allant jusqu'à 45 % existent dans un chimiotype sud-africain[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se trouve dans l'huile essentielle de Niaouli (Melaleuca quinquenervia cineolifera) entre 2,5 et 9 % mais des teneurs allant jusqu'à 45 % existent dans un chimiotype sud-africain.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Roger Jollois, Pierre Franchomme (dir.), Daniel Pénoêl et Jean Mars, L'aromathérapie exactement : encyclopédie de l'utilisation thérapeutique des huiles essentielles : fondements, démonstration, illustration et applications d'une science médicale naturelle, S.l, Jollois, 2001, 490 p. (ISBN 978-2-87819-001-4, OCLC 421961980)</t>
         </is>
